--- a/medicine/Enfance/L'Affaire_Caïus/L'Affaire_Caïus.xlsx
+++ b/medicine/Enfance/L'Affaire_Caïus/L'Affaire_Caïus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>L%27Affaire_Ca%C3%AFus</t>
+          <t>L'Affaire_Caïus</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L'Affaire Caïus (titre original allemand : Caïus ist ein Dummkopf, qui veut dire : « Caïus est un idiot ») est un roman historique pour la  jeunesse de l'écrivain allemand Henry Winterfeld, publié en Allemagne en 1953.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>L%27Affaire_Ca%C3%AFus</t>
+          <t>L'Affaire_Caïus</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Résumé</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'histoire se passe à l'époque de la Rome antique, au Ier siècle. La scène débute dans une salle de classe. Alors qu'un élève, Caïus, est interrogé par son professeur Xanthos, les élèves deviennent distraits et éclatent de rire. L'un d'entre eux, Rufus, a écrit sur une tablette « Caïus est un âne » et a fait pendre cette inscription sur le mur. Après avoir découvert cette plaisanterie, Xanthos (surnommé « Xanthippe » par ses élèves, à cause de son mauvais caractère) a sanctionné l'élève. Il lui ordonne de ranger toutes ses affaires et de quitter la classe. Le lendemain, ni le professeur, ni Rufus, ni Caïus ne sont présents dans la salle alors que l'heure du début des cours approche. Les élèves se demandent les raisons de leurs absences et avancent plusieurs hypothèses. Ils remarquent qu'il y a des bruits étranges qui sortent de la chambre de Xanthos. En ouvrant la porte, les élèves trouvent la salle sens dessus dessous.
 Ils découvrent leur professeur dans un état piteux. Enfermé dans une armoire, il a les mains et les pieds solidement attachés. Libéré, Xanthos leur raconte sa mésaventure. Il a été agressé la veille par un malfaiteur qui souhaitait, selon lui, lui dérober ses biens. Dans la description, il lance que son agresseur était de grande taille et assez costaud. Après avoir vérifié la chambre, aucun objet de valeur n'a été volé, seuls quelques livres de mathématiques ont disparu de l'étagère. Avec les chevilles foulées et encore sous le choc, le professeur annule ses cours pendant quelques jours.
@@ -532,7 +546,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>L%27Affaire_Ca%C3%AFus</t>
+          <t>L'Affaire_Caïus</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -550,7 +564,9 @@
           <t>Personnages principaux</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Caïus est le fils borné d'un sénateur ; sa brutalité est plus aisément reconnue que son intelligence ; il est le cancre de son école.
 Mucius est le fils du tribun Domitius. C'est un jeune homme très intelligent, le meilleur de son école, qui fait la fierté de Xanthos. Il fait régner le calme et la discipline dans sa classe (il a été élu moniteur de la classe). Il n'hésite pas à se mettre à la recherche de la vérité lorsque Rufus est arrêté.
@@ -575,7 +591,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>L%27Affaire_Ca%C3%AFus</t>
+          <t>L'Affaire_Caïus</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -593,10 +609,12 @@
           <t>Usage éducatif</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le roman est parfois étudié en France en classes de sixième et cinquième.
-Il est également recommandé aux États-Unis pour enseigner aux enfants la vie dans la Rome antique[1].
+Il est également recommandé aux États-Unis pour enseigner aux enfants la vie dans la Rome antique.
 </t>
         </is>
       </c>
@@ -607,7 +625,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>L%27Affaire_Ca%C3%AFus</t>
+          <t>L'Affaire_Caïus</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -625,9 +643,11 @@
           <t>Inspiration historique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La note historique en fin de livre précise que la phrase « Caius asinus est » a réellement été retrouvée sous forme de graffiti dans les ruines de Pompéi[2]. En réalité, il s'agit d'une invention romanesque qui n'a jamais été confirmée[3].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La note historique en fin de livre précise que la phrase « Caius asinus est » a réellement été retrouvée sous forme de graffiti dans les ruines de Pompéi. En réalité, il s'agit d'une invention romanesque qui n'a jamais été confirmée.
 </t>
         </is>
       </c>
@@ -638,7 +658,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>L%27Affaire_Ca%C3%AFus</t>
+          <t>L'Affaire_Caïus</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -656,7 +676,9 @@
           <t>Suites</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Henry Winterfeld a donné deux suites à ce roman :
 en 1969 : Caïus et le Gladiateur (Caius geht ein Licht auf) ;
